--- a/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,66; 0,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,74; -2,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 1,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 10,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -3,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,28; -0,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,65; 8,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; -3,98</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,23%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,06; 0,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 12,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,64; -3,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,85; 2,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,59; 13,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,92; -5,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,84; -0,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,71; 11,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,43; -5,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,01</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 3,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,84; 18,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 0,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 9,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,84; 18,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,52; -0,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,8; 5,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,93; 17,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; -1,36</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,79%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 5,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,1; 29,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,52; 0,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,27; 14,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,6; 28,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,84; -1,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 8,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,86; 27,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,44; -2,16</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; 3,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 13,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,57; -1,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,46; 8,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,28; 15,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,46; -1,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,62; 3,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 12,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,09; -3,71</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,68%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,28%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,05; 5,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 19,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,09; -2,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 13,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,59; 26,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,36; -3,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 5,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 19,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,03; -6,2</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,05</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,45</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,04; 13,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; -3,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 4,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,28; 13,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,71; -5,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,66; 12,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; -5,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,53%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,02%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,47; 1,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,1; 20,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,14; -5,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 6,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,86; 19,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; -7,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,73; 3,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,75; 18,46</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; -7,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-7,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,36</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-7,99</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,74; -2,53</t>
+          <t>-12,79; -3,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -3,94</t>
+          <t>-11,86; -4,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,57; -3,98</t>
+          <t>-10,64; -4,92</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>-10,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,45%</t>
+          <t>-10,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,23%</t>
+          <t>-10,48%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,64; -3,52</t>
+          <t>-16,92; -4,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; -5,19</t>
+          <t>-15,07; -6,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-12,43; -5,25</t>
+          <t>-13,76; -6,55</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-10,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-7,17</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-8,88</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 0,22</t>
+          <t>-28,74; -2,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,87</t>
+          <t>-14,44; -3,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,95; -1,36</t>
+          <t>-21,11; -4,21</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,84%</t>
+          <t>-10,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-5,79%</t>
+          <t>-13,48%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 0,29</t>
+          <t>-44,82; -3,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -1,28</t>
+          <t>-21,62; -5,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,44; -2,16</t>
+          <t>-32,17; -6,43</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>-8,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,97</t>
+          <t>-8,47</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -1,83</t>
+          <t>-14,25; -2,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -1,95</t>
+          <t>-13,72; -2,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -3,71</t>
+          <t>-12,61; -4,29</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,68%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-12,29%</t>
+          <t>-12,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,28%</t>
+          <t>-13,06%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -2,74</t>
+          <t>-20,72; -3,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,36; -3,36</t>
+          <t>-21,01; -3,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,03; -6,2</t>
+          <t>-18,78; -6,85</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-11,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-9,65</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-10,44</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; -3,88</t>
+          <t>-26,57; -6,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -5,1</t>
+          <t>-13,84; -6,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,04; -5,24</t>
+          <t>-17,81; -7,29</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,55%</t>
+          <t>-16,45%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>-13,64%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-10,02%</t>
+          <t>-15,05%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,14; -5,8</t>
+          <t>-39,52; -8,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,61; -7,31</t>
+          <t>-19,48; -9,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; -7,56</t>
+          <t>-25,81; -10,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 0,31</t>
+          <t>-7,7; 0,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 8,86</t>
+          <t>0,74; 9,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,79; -3,4</t>
+          <t>-12,95; -3,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 1,68</t>
+          <t>-5,1; 1,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,34</t>
+          <t>3,78; 10,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -4,81</t>
+          <t>-11,84; -4,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,28; -0,04</t>
+          <t>-5,12; -0,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 8,57</t>
+          <t>3,41; 8,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; -4,92</t>
+          <t>-10,92; -5,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 0,44</t>
+          <t>-10,05; 0,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 12,26</t>
+          <t>1,02; 12,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -4,63</t>
+          <t>-17,08; -4,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 2,19</t>
+          <t>-6,4; 1,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 13,65</t>
+          <t>4,73; 13,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,07; -6,26</t>
+          <t>-14,96; -6,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,84; -0,04</t>
+          <t>-6,53; -0,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,4</t>
+          <t>4,46; 11,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; -6,55</t>
+          <t>-14,05; -7,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,49</t>
+          <t>-3,14; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,69</t>
+          <t>12,58; 18,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-28,74; -2,52</t>
+          <t>-28,65; -2,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 9,24</t>
+          <t>2,71; 9,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,76</t>
+          <t>13,27; 19,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,44; -3,31</t>
+          <t>-15,66; -3,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 5,44</t>
+          <t>0,95; 5,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 17,9</t>
+          <t>13,83; 17,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,11; -4,21</t>
+          <t>-19,36; -4,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 5,61</t>
+          <t>-4,76; 5,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,1; 29,74</t>
+          <t>18,75; 29,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-44,82; -3,97</t>
+          <t>-43,45; -4,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 14,13</t>
+          <t>3,86; 14,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,6; 28,57</t>
+          <t>19,3; 29,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -5,01</t>
+          <t>-23,09; -4,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,44</t>
+          <t>1,43; 8,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 27,89</t>
+          <t>20,6; 27,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,17; -6,43</t>
+          <t>-29,38; -6,76</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 3,43</t>
+          <t>-9,74; 2,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 13,0</t>
+          <t>1,37; 13,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -2,49</t>
+          <t>-14,77; -3,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,2</t>
+          <t>-5,02; 9,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 15,82</t>
+          <t>4,41; 15,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,72; -2,24</t>
+          <t>-12,77; -1,54</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,57</t>
+          <t>-5,28; 3,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 12,35</t>
+          <t>3,79; 12,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; -4,29</t>
+          <t>-12,6; -4,63</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 5,41</t>
+          <t>-14,04; 4,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,64; 19,89</t>
+          <t>1,53; 20,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,72; -3,92</t>
+          <t>-21,07; -4,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 13,76</t>
+          <t>-7,61; 14,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,59; 26,99</t>
+          <t>6,87; 26,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -3,94</t>
+          <t>-19,46; -2,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 5,61</t>
+          <t>-7,96; 6,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,99; 19,69</t>
+          <t>5,72; 20,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-18,78; -6,85</t>
+          <t>-18,87; -7,39</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,85</t>
+          <t>-4,1; 0,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,04; 13,4</t>
+          <t>8,82; 13,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,57; -6,09</t>
+          <t>-25,14; -6,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 4,59</t>
+          <t>0,1; 4,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,28; 13,5</t>
+          <t>9,23; 13,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,84; -6,93</t>
+          <t>-13,68; -7,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,11</t>
+          <t>-1,23; 2,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,61</t>
+          <t>9,73; 12,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,81; -7,29</t>
+          <t>-18,41; -7,43</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 1,26</t>
+          <t>-5,96; 0,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,1; 20,15</t>
+          <t>12,72; 20,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,52; -8,98</t>
+          <t>-37,12; -8,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,6</t>
+          <t>0,25; 6,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,45</t>
+          <t>12,84; 19,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,48; -9,98</t>
+          <t>-19,26; -10,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 3,08</t>
+          <t>-1,74; 2,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,46</t>
+          <t>13,89; 18,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-25,81; -10,61</t>
+          <t>-26,7; -10,77</t>
         </is>
       </c>
     </row>
